--- a/apifile/AlarmEventController.xlsx
+++ b/apifile/AlarmEventController.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBE1CB-5466-49D0-87E1-C8429D95003A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FC68C-B128-4570-B69D-34E30DA1E28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/queryPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/topThreeMsg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查询未读告警信息的最新三条</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,22 +91,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/unreadCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/subscriptions/queryPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查询告警订阅列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/777730413535186944</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>put</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,28 +103,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/subscriptions?eventTypeId=DeviceOfflineEvent&amp;subscribe=true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>订阅事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/subscriptions?eventTypeId=DeviceOfflineEvent&amp;subscribe=false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取消订阅事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/readAll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标记所有未读告警为已读</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/alarmEvents/queryPage</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/subscriptions/queryPage</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/alarmEvents/topThreeMsg</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/alarmEvents/unreadCount</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/alarmEvents/777730413535186944</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/subscriptions?eventTypeId=DeviceOfflineEvent&amp;subscribe=false</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/subscriptions?eventTypeId=DeviceOfflineEvent&amp;subscribe=true</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/alarmManagement/alarmEvents/readAll</t>
   </si>
 </sst>
 </file>
@@ -509,7 +501,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,34 +540,34 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>200</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
@@ -583,15 +575,15 @@
         <v>200</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
@@ -601,15 +593,15 @@
         <v>200</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -618,15 +610,15 @@
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -635,15 +627,15 @@
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -652,15 +644,15 @@
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -669,15 +661,15 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -686,20 +678,20 @@
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7EB86B65-695D-4C6C-897D-3D8C4F647015}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{B4CAF8BF-079B-421B-9C7C-DDD476F69CB9}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{116AC7E4-DCD1-440A-A820-9B29EE4C96D8}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{7CBDDF42-7C45-4379-AFEA-33EA4FCD3C57}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{85CA2A3E-4902-4A49-B9DE-FBBB8EED38B9}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{C6795A4F-086D-4831-A2CB-18CCA754C7F6}"/>
-    <hyperlink ref="A4" r:id="rId7" xr:uid="{E35952FF-02E2-45B5-8D3B-8C149BA9D905}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{26B502D6-C395-4246-AD28-DDCBF2E71FE6}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/queryPage" xr:uid="{7EB86B65-695D-4C6C-897D-3D8C4F647015}"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/unreadCount" xr:uid="{B4CAF8BF-079B-421B-9C7C-DDD476F69CB9}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/subscriptions/queryPage" xr:uid="{116AC7E4-DCD1-440A-A820-9B29EE4C96D8}"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/777730413535186944" xr:uid="{7CBDDF42-7C45-4379-AFEA-33EA4FCD3C57}"/>
+    <hyperlink ref="A8" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/subscriptions?eventTypeId=DeviceOfflineEvent&amp;subscribe=true" xr:uid="{85CA2A3E-4902-4A49-B9DE-FBBB8EED38B9}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/subscriptions?eventTypeId=DeviceOfflineEvent&amp;subscribe=false" xr:uid="{C6795A4F-086D-4831-A2CB-18CCA754C7F6}"/>
+    <hyperlink ref="A4" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/topThreeMsg" xr:uid="{E35952FF-02E2-45B5-8D3B-8C149BA9D905}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://island.dev.iot-cas.com:8081/island/alarmManagement/alarmEvents/readAll" xr:uid="{26B502D6-C395-4246-AD28-DDCBF2E71FE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
